--- a/Excel/DungeonConfig.xlsx
+++ b/Excel/DungeonConfig.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="21425"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8220625B-BBAA-460D-8938-7E8F5C56BA30}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C5C887AE-8CF6-4518-BE67-4B63A731EBF4}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-60" yWindow="2655" windowWidth="28800" windowHeight="15885" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -53,7 +53,7 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>AppType.Map | AppType.ClientM</t>
+    <t>AppType.Map</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -471,7 +471,7 @@
   <dimension ref="A1:M6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C12" sqref="C12"/>
+      <selection activeCell="C10" sqref="C10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.3"/>
